--- a/venv/data/test_1.xlsx
+++ b/venv/data/test_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janosch/PycharmProjects/geosurvey/venv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janosch/PycharmProjects/geosurvey/venv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D62008A2-95E9-4449-9772-B52420427DDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940ADACD-155D-B741-94EA-271AEA91E78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17560" xr2:uid="{362F0D21-D78F-264E-8CD2-F97977149798}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>a</t>
   </si>
@@ -50,19 +50,10 @@
     <t>e</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>ch</t>
-  </si>
-  <si>
-    <t>i</t>
+    <t>Jméno</t>
+  </si>
+  <si>
+    <t>Věk</t>
   </si>
 </sst>
 </file>
@@ -415,20 +406,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E26047-4558-7F45-92EF-401E158138F2}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
       </c>
       <c r="C1">
         <v>3</v>
@@ -455,23 +446,6 @@
       </c>
       <c r="E2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
